--- a/data/excel_files/월_입국승객.xlsx
+++ b/data/excel_files/월_입국승객.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/건국대학교/2020-2/졸업프로젝트/데이터/최종정제/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B9A742E-C0CE-6A4B-BE2E-D1AA2914B386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CB436E-2FFA-2B48-B1EC-7ABCB0E9FE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="5560" windowWidth="27900" windowHeight="16940" xr2:uid="{2F1E0223-0135-5843-AE5B-52656D042F72}"/>
+    <workbookView xWindow="4980" yWindow="5460" windowWidth="27900" windowHeight="16940" xr2:uid="{2F1E0223-0135-5843-AE5B-52656D042F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,48 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>arrive</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
   </si>
   <si>
     <t>2003-01</t>
@@ -1114,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379FBB04-024E-B541-AC56-C68A02A173CA}">
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B229"/>
+      <selection activeCell="C12" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1135,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>820552</v>
+        <v>937139</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1143,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>813377</v>
+        <v>850903</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1151,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>880293</v>
+        <v>801905</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1159,7 +1123,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>838274</v>
+        <v>542955</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1167,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>818034</v>
+        <v>508108</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1175,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>767113</v>
+        <v>627211</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1183,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>912436</v>
+        <v>853709</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1191,7 +1155,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>1141321</v>
+        <v>1126427</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1199,7 +1163,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>845483</v>
+        <v>858192</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1207,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>913106</v>
+        <v>923881</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1215,7 +1179,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>846513</v>
+        <v>906017</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1223,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>881264</v>
+        <v>944929</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1231,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>937139</v>
+        <v>980758</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1239,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>850903</v>
+        <v>915401</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1247,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>801905</v>
+        <v>875418</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1255,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>542955</v>
+        <v>898648</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1263,7 +1227,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>508108</v>
+        <v>944212</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1271,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3">
-        <v>627211</v>
+        <v>972831</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1279,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3">
-        <v>853709</v>
+        <v>1097188</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1287,7 +1251,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3">
-        <v>1126427</v>
+        <v>1274877</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1295,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>858192</v>
+        <v>968591</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1303,7 +1267,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3">
-        <v>923881</v>
+        <v>1062048</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1311,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3">
-        <v>906017</v>
+        <v>1022171</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1319,7 +1283,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>944929</v>
+        <v>1037094</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1327,7 +1291,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>980758</v>
+        <v>1062042</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1335,7 +1299,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3">
-        <v>915401</v>
+        <v>1026858</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1343,7 +1307,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3">
-        <v>875418</v>
+        <v>1010704</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1351,7 +1315,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3">
-        <v>898648</v>
+        <v>1013824</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1359,7 +1323,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3">
-        <v>944212</v>
+        <v>1025316</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1367,7 +1331,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="3">
-        <v>972831</v>
+        <v>1093111</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1375,7 +1339,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="3">
-        <v>1097188</v>
+        <v>1173007</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1383,7 +1347,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="3">
-        <v>1274877</v>
+        <v>1340469</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1391,7 +1355,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="3">
-        <v>968591</v>
+        <v>1016976</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1399,7 +1363,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="3">
-        <v>1062048</v>
+        <v>1148528</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1407,7 +1371,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="3">
-        <v>1022171</v>
+        <v>1018598</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1415,7 +1379,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="3">
-        <v>1037094</v>
+        <v>1071608</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1423,7 +1387,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="3">
-        <v>1062042</v>
+        <v>1148708</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1431,7 +1395,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="3">
-        <v>1026858</v>
+        <v>1090768</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1439,7 +1403,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="3">
-        <v>1010704</v>
+        <v>1073443</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1447,7 +1411,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="3">
-        <v>1013824</v>
+        <v>1082405</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1455,7 +1419,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>1025316</v>
+        <v>1132629</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1463,7 +1427,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="3">
-        <v>1093111</v>
+        <v>1129146</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1471,7 +1435,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>1173007</v>
+        <v>1223459</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1479,7 +1443,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="3">
-        <v>1340469</v>
+        <v>1444240</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1487,7 +1451,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="3">
-        <v>1016976</v>
+        <v>1130314</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1495,7 +1459,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="3">
-        <v>1148528</v>
+        <v>1256732</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1503,7 +1467,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>1018598</v>
+        <v>1182304</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1511,7 +1475,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="3">
-        <v>1071608</v>
+        <v>1220986</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1519,7 +1483,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="3">
-        <v>1148708</v>
+        <v>1289449</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1527,7 +1491,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="3">
-        <v>1090768</v>
+        <v>1260902</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1535,7 +1499,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="3">
-        <v>1073443</v>
+        <v>1271321</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1543,7 +1507,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>1082405</v>
+        <v>1220375</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1551,7 +1515,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="3">
-        <v>1132629</v>
+        <v>1263422</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1559,7 +1523,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>1129146</v>
+        <v>1262565</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1567,7 +1531,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="3">
-        <v>1223459</v>
+        <v>1376019</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1575,7 +1539,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="3">
-        <v>1444240</v>
+        <v>1573064</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1583,7 +1547,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="3">
-        <v>1130314</v>
+        <v>1266412</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1591,7 +1555,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="3">
-        <v>1256732</v>
+        <v>1314232</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1599,7 +1563,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="3">
-        <v>1182304</v>
+        <v>1263542</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1607,7 +1571,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="3">
-        <v>1220986</v>
+        <v>1291554</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1615,7 +1579,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="3">
-        <v>1289449</v>
+        <v>1387787</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1623,7 +1587,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="3">
-        <v>1260902</v>
+        <v>1354222</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1631,7 +1595,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="3">
-        <v>1271321</v>
+        <v>1275695</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1639,7 +1603,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="3">
-        <v>1220375</v>
+        <v>1212479</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1647,7 +1611,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="3">
-        <v>1263422</v>
+        <v>1301704</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1655,7 +1619,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="3">
-        <v>1262565</v>
+        <v>1247277</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1663,7 +1627,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="3">
-        <v>1376019</v>
+        <v>1299669</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1671,7 +1635,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="3">
-        <v>1573064</v>
+        <v>1448432</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1679,7 +1643,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="3">
-        <v>1266412</v>
+        <v>1105069</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1687,7 +1651,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="3">
-        <v>1314232</v>
+        <v>1223224</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1695,7 +1659,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="3">
-        <v>1263542</v>
+        <v>1065235</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1703,7 +1667,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="3">
-        <v>1291554</v>
+        <v>1107849</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1711,7 +1675,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="3">
-        <v>1387787</v>
+        <v>1206719</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1719,7 +1683,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="3">
-        <v>1354222</v>
+        <v>1157544</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1727,7 +1691,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="3">
-        <v>1275695</v>
+        <v>1137599</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1735,7 +1699,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="3">
-        <v>1212479</v>
+        <v>1130211</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1743,7 +1707,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="3">
-        <v>1301704</v>
+        <v>1109332</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1751,7 +1715,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="3">
-        <v>1247277</v>
+        <v>1045893</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1759,7 +1723,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="3">
-        <v>1299669</v>
+        <v>1275680</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1767,7 +1731,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="3">
-        <v>1448432</v>
+        <v>1487449</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1775,7 +1739,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="3">
-        <v>1105069</v>
+        <v>1137001</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1783,7 +1747,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="3">
-        <v>1223224</v>
+        <v>1168623</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1791,7 +1755,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="3">
-        <v>1065235</v>
+        <v>1140527</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1799,7 +1763,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="3">
-        <v>1107849</v>
+        <v>1251660</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1807,7 +1771,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="3">
-        <v>1206719</v>
+        <v>1333697</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1815,7 +1779,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="3">
-        <v>1157544</v>
+        <v>1309783</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1823,7 +1787,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="3">
-        <v>1137599</v>
+        <v>1409828</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1831,7 +1795,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="3">
-        <v>1130211</v>
+        <v>1316541</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1839,7 +1803,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="3">
-        <v>1109332</v>
+        <v>1366559</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1847,7 +1811,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="3">
-        <v>1045893</v>
+        <v>1338071</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1855,7 +1819,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="3">
-        <v>1275680</v>
+        <v>1466865</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1863,7 +1827,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="3">
-        <v>1487449</v>
+        <v>1662011</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1871,7 +1835,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="3">
-        <v>1137001</v>
+        <v>1385397</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1879,7 +1843,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="3">
-        <v>1168623</v>
+        <v>1491788</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1887,7 +1851,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="3">
-        <v>1140527</v>
+        <v>1374448</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1895,7 +1859,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="3">
-        <v>1251660</v>
+        <v>1321656</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1903,7 +1867,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="3">
-        <v>1333697</v>
+        <v>1481662</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1911,7 +1875,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="3">
-        <v>1309783</v>
+        <v>1409689</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1919,7 +1883,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="3">
-        <v>1409828</v>
+        <v>1376043</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1927,7 +1891,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="3">
-        <v>1316541</v>
+        <v>1309378</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1935,7 +1899,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="3">
-        <v>1366559</v>
+        <v>1404509</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1943,7 +1907,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="3">
-        <v>1338071</v>
+        <v>1429046</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1951,7 +1915,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="3">
-        <v>1466865</v>
+        <v>1582324</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1959,7 +1923,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="3">
-        <v>1662011</v>
+        <v>1770068</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1967,7 +1931,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="3">
-        <v>1385397</v>
+        <v>1424863</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1975,7 +1939,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="3">
-        <v>1491788</v>
+        <v>1549971</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1983,7 +1947,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="3">
-        <v>1374448</v>
+        <v>1395917</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1991,7 +1955,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="3">
-        <v>1321656</v>
+        <v>1466722</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1999,7 +1963,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="3">
-        <v>1481662</v>
+        <v>1580281</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2007,7 +1971,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="3">
-        <v>1409689</v>
+        <v>1547908</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2015,7 +1979,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="3">
-        <v>1376043</v>
+        <v>1538283</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2023,7 +1987,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="3">
-        <v>1309378</v>
+        <v>1531621</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2031,7 +1995,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="3">
-        <v>1404509</v>
+        <v>1542031</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2039,7 +2003,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="3">
-        <v>1429046</v>
+        <v>1585185</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2047,7 +2011,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="3">
-        <v>1582324</v>
+        <v>1717080</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2055,7 +2019,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="3">
-        <v>1770068</v>
+        <v>1968380</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2063,7 +2027,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="3">
-        <v>1424863</v>
+        <v>1583813</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2071,7 +2035,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="3">
-        <v>1549971</v>
+        <v>1686051</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2079,7 +2043,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="3">
-        <v>1395917</v>
+        <v>1556890</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2087,7 +2051,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="3">
-        <v>1466722</v>
+        <v>1651426</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2095,7 +2059,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="3">
-        <v>1580281</v>
+        <v>1757543</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2103,7 +2067,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="3">
-        <v>1547908</v>
+        <v>1673383</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2111,7 +2075,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="3">
-        <v>1538283</v>
+        <v>1779533</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2119,7 +2083,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="3">
-        <v>1531621</v>
+        <v>1563269</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2127,7 +2091,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="3">
-        <v>1542031</v>
+        <v>1577493</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2135,7 +2099,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="3">
-        <v>1585185</v>
+        <v>1686446</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2143,7 +2107,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="3">
-        <v>1717080</v>
+        <v>1812694</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2151,7 +2115,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="3">
-        <v>1968380</v>
+        <v>2089722</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2159,7 +2123,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="3">
-        <v>1583813</v>
+        <v>1726088</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2167,7 +2131,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="3">
-        <v>1686051</v>
+        <v>1756877</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2175,7 +2139,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="3">
-        <v>1556890</v>
+        <v>1617982</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2183,7 +2147,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="3">
-        <v>1651426</v>
+        <v>1726449</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2191,7 +2155,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="3">
-        <v>1757543</v>
+        <v>1872121</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2199,7 +2163,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="3">
-        <v>1673383</v>
+        <v>1780462</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2207,7 +2171,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="3">
-        <v>1779533</v>
+        <v>1791495</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2215,7 +2179,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="3">
-        <v>1563269</v>
+        <v>1755112</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2223,7 +2187,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="3">
-        <v>1577493</v>
+        <v>1802910</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2231,7 +2195,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="3">
-        <v>1686446</v>
+        <v>1835480</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2239,7 +2203,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="3">
-        <v>1812694</v>
+        <v>2006957</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2247,7 +2211,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="3">
-        <v>2089722</v>
+        <v>2309160</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2255,7 +2219,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="3">
-        <v>1726088</v>
+        <v>1876284</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2263,7 +2227,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="3">
-        <v>1756877</v>
+        <v>2005410</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2271,7 +2235,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="3">
-        <v>1617982</v>
+        <v>1827404</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2279,7 +2243,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="3">
-        <v>1726449</v>
+        <v>1951979</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2287,7 +2251,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="3">
-        <v>1872121</v>
+        <v>2124023</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2295,7 +2259,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="3">
-        <v>1780462</v>
+        <v>2100612</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2303,7 +2267,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="3">
-        <v>1791495</v>
+        <v>2074375</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2311,7 +2275,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="3">
-        <v>1755112</v>
+        <v>2077687</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2319,7 +2283,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="3">
-        <v>1802910</v>
+        <v>2151974</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2327,7 +2291,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="3">
-        <v>1835480</v>
+        <v>1606828</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2335,7 +2299,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="3">
-        <v>2006957</v>
+        <v>1781957</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2343,7 +2307,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="3">
-        <v>2309160</v>
+        <v>2319463</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2351,7 +2315,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="3">
-        <v>1876284</v>
+        <v>1966692</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2359,7 +2323,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="3">
-        <v>2005410</v>
+        <v>2214642</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2367,7 +2331,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="3">
-        <v>1827404</v>
+        <v>2053431</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2375,7 +2339,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="3">
-        <v>1951979</v>
+        <v>2181025</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2383,7 +2347,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="3">
-        <v>2124023</v>
+        <v>2443552</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2391,7 +2355,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="3">
-        <v>2100612</v>
+        <v>2350524</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2399,7 +2363,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="3">
-        <v>2074375</v>
+        <v>2252656</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2407,7 +2371,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="3">
-        <v>2077687</v>
+        <v>2250198</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2415,7 +2379,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="3">
-        <v>2151974</v>
+        <v>2242829</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2423,7 +2387,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="3">
-        <v>1606828</v>
+        <v>2351095</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2431,7 +2395,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="3">
-        <v>1781957</v>
+        <v>2591033</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2439,7 +2403,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="3">
-        <v>2319463</v>
+        <v>2800054</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2447,7 +2411,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="3">
-        <v>1966692</v>
+        <v>2356922</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2455,7 +2419,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="3">
-        <v>2214642</v>
+        <v>2511742</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2463,7 +2427,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="3">
-        <v>2053431</v>
+        <v>2289071</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2471,7 +2435,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="3">
-        <v>2181025</v>
+        <v>2489712</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2479,7 +2443,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="3">
-        <v>2443552</v>
+        <v>2727732</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2487,7 +2451,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="3">
-        <v>2350524</v>
+        <v>2598563</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2495,7 +2459,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="3">
-        <v>2252656</v>
+        <v>2494753</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2503,7 +2467,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="3">
-        <v>2250198</v>
+        <v>2321985</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2511,7 +2475,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="3">
-        <v>2242829</v>
+        <v>2434543</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2519,7 +2483,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="3">
-        <v>2351095</v>
+        <v>2438284</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2527,7 +2491,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="3">
-        <v>2591033</v>
+        <v>2602951</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2535,7 +2499,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="3">
-        <v>2800054</v>
+        <v>2930151</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2543,7 +2507,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="3">
-        <v>2356922</v>
+        <v>2443967</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2551,7 +2515,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="3">
-        <v>2511742</v>
+        <v>2758250</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2559,7 +2523,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="3">
-        <v>2289071</v>
+        <v>2558831</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2567,7 +2531,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="3">
-        <v>2489712</v>
+        <v>2761652</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2575,7 +2539,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="3">
-        <v>2727732</v>
+        <v>2933700</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2583,7 +2547,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="3">
-        <v>2598563</v>
+        <v>2786935</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2591,7 +2555,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="3">
-        <v>2494753</v>
+        <v>2935160</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2599,7 +2563,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="3">
-        <v>2321985</v>
+        <v>2736774</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2607,7 +2571,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="3">
-        <v>2434543</v>
+        <v>2722788</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2615,7 +2579,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="3">
-        <v>2438284</v>
+        <v>2790883</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2623,7 +2587,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="3">
-        <v>2602951</v>
+        <v>2829714</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2631,7 +2595,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="3">
-        <v>2930151</v>
+        <v>3158334</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2639,7 +2603,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="3">
-        <v>2443967</v>
+        <v>2697760</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2647,7 +2611,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="3">
-        <v>2758250</v>
+        <v>2947101</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2655,7 +2619,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="3">
-        <v>2558831</v>
+        <v>2732573</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2663,7 +2627,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="3">
-        <v>2761652</v>
+        <v>2934773</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2671,7 +2635,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="3">
-        <v>2933700</v>
+        <v>3026952</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2679,7 +2643,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="3">
-        <v>2786935</v>
+        <v>2936756</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2687,7 +2651,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="3">
-        <v>2935160</v>
+        <v>3043199</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2695,7 +2659,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="3">
-        <v>2736774</v>
+        <v>2906981</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2703,7 +2667,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="3">
-        <v>2722788</v>
+        <v>2889018</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2711,7 +2675,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="3">
-        <v>2790883</v>
+        <v>3010871</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2719,7 +2683,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="3">
-        <v>2829714</v>
+        <v>3038055</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2727,7 +2691,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="3">
-        <v>3158334</v>
+        <v>3292497</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2735,7 +2699,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="3">
-        <v>2697760</v>
+        <v>2734249</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2743,7 +2707,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="3">
-        <v>2947101</v>
+        <v>2964529</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2751,7 +2715,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="3">
-        <v>2732573</v>
+        <v>2745906</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2759,7 +2723,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="3">
-        <v>2934773</v>
+        <v>3011080</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2767,7 +2731,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="3">
-        <v>3026952</v>
+        <v>3116452</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2775,7 +2739,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="3">
-        <v>2936756</v>
+        <v>1766593</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2783,7 +2747,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="3">
-        <v>3043199</v>
+        <v>337001</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2791,7 +2755,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="3">
-        <v>2906981</v>
+        <v>120868</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2799,7 +2763,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="3">
-        <v>2889018</v>
+        <v>94886</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2807,7 +2771,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="3">
-        <v>3010871</v>
+        <v>109198</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2815,7 +2779,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="3">
-        <v>3038055</v>
+        <v>116985</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2823,7 +2787,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="3">
-        <v>3292497</v>
+        <v>113637</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2831,7 +2795,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="3">
-        <v>2734249</v>
+        <v>94564</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2839,7 +2803,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="3">
-        <v>2964529</v>
+        <v>92733</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2847,7 +2811,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="3">
-        <v>2745906</v>
+        <v>94207</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2855,102 +2819,6 @@
         <v>217</v>
       </c>
       <c r="B217" s="3">
-        <v>3011080</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B218" s="3">
-        <v>3116452</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B219" s="3">
-        <v>1766593</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220" s="3">
-        <v>337001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B221" s="3">
-        <v>120868</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B222" s="3">
-        <v>94886</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B223" s="3">
-        <v>109198</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B224" s="3">
-        <v>116985</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B225" s="3">
-        <v>113637</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B226" s="3">
-        <v>94564</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B227" s="3">
-        <v>92733</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B228" s="3">
-        <v>94207</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B229" s="3">
         <v>101695</v>
       </c>
     </row>
